--- a/Data Dictionaries (Upload Here)/OEC/OEC_Data_Dictionary.xlsx
+++ b/Data Dictionaries (Upload Here)/OEC/OEC_Data_Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\opm-fs102\UserRedirections\WonderlyC\Documents\Data-Dictionaries\Data Dictionaries (Upload Here)\OEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B073C3D-5451-41BD-91AF-28C6B907C4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D1A26C-AF36-475B-98BC-D094C4281A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{824AFC85-3A12-46BD-86EC-A220207FE9A3}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="18000" windowHeight="9300" xr2:uid="{824AFC85-3A12-46BD-86EC-A220207FE9A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>Agency</t>
   </si>
   <si>
-    <t>Source</t>
-  </si>
-  <si>
     <t>Data Category</t>
   </si>
   <si>
@@ -517,6 +514,9 @@
   </si>
   <si>
     <t>RaceCode</t>
+  </si>
+  <si>
+    <t>Program</t>
   </si>
 </sst>
 </file>
@@ -870,7 +870,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655E8F63-11E4-41F5-A5D0-443FBAFD2251}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -888,1056 +890,1056 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
         <v>24</v>
       </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
         <v>26</v>
       </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
         <v>28</v>
       </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
         <v>30</v>
       </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
         <v>32</v>
       </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
         <v>34</v>
       </c>
-      <c r="E14" t="s">
-        <v>35</v>
-      </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
         <v>36</v>
       </c>
-      <c r="E15" t="s">
-        <v>37</v>
-      </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
         <v>38</v>
       </c>
-      <c r="E16" t="s">
-        <v>39</v>
-      </c>
       <c r="G16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
         <v>40</v>
       </c>
-      <c r="E17" t="s">
-        <v>41</v>
-      </c>
       <c r="G17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
         <v>42</v>
       </c>
-      <c r="E18" t="s">
-        <v>43</v>
-      </c>
       <c r="G18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
         <v>44</v>
       </c>
-      <c r="E19" t="s">
-        <v>45</v>
-      </c>
       <c r="G19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" t="s">
         <v>46</v>
       </c>
-      <c r="E20" t="s">
-        <v>47</v>
-      </c>
       <c r="G20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
         <v>48</v>
       </c>
-      <c r="E21" t="s">
-        <v>49</v>
-      </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" t="s">
         <v>50</v>
       </c>
-      <c r="E22" t="s">
-        <v>51</v>
-      </c>
       <c r="G22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" t="s">
         <v>52</v>
       </c>
-      <c r="E23" t="s">
-        <v>53</v>
-      </c>
       <c r="G23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
         <v>54</v>
       </c>
-      <c r="E24" t="s">
-        <v>55</v>
-      </c>
       <c r="G24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" t="s">
         <v>56</v>
       </c>
-      <c r="E25" t="s">
-        <v>57</v>
-      </c>
       <c r="G25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
         <v>58</v>
       </c>
-      <c r="E26" t="s">
-        <v>59</v>
-      </c>
       <c r="G26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" t="s">
         <v>60</v>
       </c>
-      <c r="E27" t="s">
-        <v>61</v>
-      </c>
       <c r="G27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" t="s">
         <v>62</v>
       </c>
-      <c r="E28" t="s">
-        <v>63</v>
-      </c>
       <c r="G28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" t="s">
         <v>64</v>
       </c>
-      <c r="E29" t="s">
-        <v>65</v>
-      </c>
       <c r="G29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" t="s">
         <v>66</v>
       </c>
-      <c r="E30" t="s">
-        <v>67</v>
-      </c>
       <c r="G30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" t="s">
         <v>68</v>
       </c>
-      <c r="E31" t="s">
-        <v>69</v>
-      </c>
       <c r="G31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" t="s">
         <v>70</v>
       </c>
-      <c r="E32" t="s">
-        <v>71</v>
-      </c>
       <c r="G32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" t="s">
         <v>72</v>
       </c>
-      <c r="E33" t="s">
-        <v>73</v>
-      </c>
       <c r="G33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" t="s">
         <v>74</v>
       </c>
-      <c r="E34" t="s">
-        <v>75</v>
-      </c>
       <c r="G34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" t="s">
         <v>76</v>
       </c>
-      <c r="E35" t="s">
-        <v>77</v>
-      </c>
       <c r="G35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" t="s">
         <v>78</v>
       </c>
-      <c r="E36" t="s">
-        <v>79</v>
-      </c>
       <c r="G36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" t="s">
         <v>80</v>
       </c>
-      <c r="E37" t="s">
-        <v>81</v>
-      </c>
       <c r="G37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" t="s">
         <v>82</v>
       </c>
-      <c r="E38" t="s">
-        <v>83</v>
-      </c>
       <c r="G38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" t="s">
         <v>84</v>
       </c>
-      <c r="E39" t="s">
-        <v>85</v>
-      </c>
       <c r="G39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" t="s">
         <v>86</v>
       </c>
-      <c r="E40" t="s">
-        <v>87</v>
-      </c>
       <c r="G40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" t="s">
         <v>88</v>
       </c>
-      <c r="E41" t="s">
-        <v>89</v>
-      </c>
       <c r="G41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" t="s">
         <v>90</v>
       </c>
-      <c r="E42" t="s">
-        <v>91</v>
-      </c>
       <c r="G42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" t="s">
         <v>92</v>
       </c>
-      <c r="E43" t="s">
-        <v>93</v>
-      </c>
       <c r="G43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" t="s">
         <v>94</v>
       </c>
-      <c r="E44" t="s">
-        <v>95</v>
-      </c>
       <c r="G44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" t="s">
         <v>96</v>
       </c>
-      <c r="E45" t="s">
-        <v>97</v>
-      </c>
       <c r="G45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" t="s">
         <v>98</v>
       </c>
-      <c r="E46" t="s">
-        <v>99</v>
-      </c>
       <c r="G46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" t="s">
         <v>100</v>
       </c>
-      <c r="E47" t="s">
-        <v>101</v>
-      </c>
       <c r="G47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D48" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48" t="s">
         <v>102</v>
       </c>
-      <c r="E48" t="s">
-        <v>103</v>
-      </c>
       <c r="G48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" t="s">
         <v>104</v>
       </c>
-      <c r="E49" t="s">
-        <v>105</v>
-      </c>
       <c r="G49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E50" t="s">
         <v>106</v>
       </c>
-      <c r="E50" t="s">
-        <v>107</v>
-      </c>
       <c r="G50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D51" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" t="s">
         <v>108</v>
       </c>
-      <c r="E51" t="s">
-        <v>109</v>
-      </c>
       <c r="G51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D52" t="s">
+        <v>109</v>
+      </c>
+      <c r="E52" t="s">
         <v>110</v>
       </c>
-      <c r="E52" t="s">
-        <v>111</v>
-      </c>
       <c r="G52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D53" t="s">
+        <v>111</v>
+      </c>
+      <c r="E53" t="s">
         <v>112</v>
       </c>
-      <c r="E53" t="s">
-        <v>113</v>
-      </c>
       <c r="G53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D54" t="s">
+        <v>113</v>
+      </c>
+      <c r="E54" t="s">
         <v>114</v>
       </c>
-      <c r="E54" t="s">
-        <v>115</v>
-      </c>
       <c r="G54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D55" t="s">
+        <v>115</v>
+      </c>
+      <c r="E55" t="s">
         <v>116</v>
       </c>
-      <c r="E55" t="s">
-        <v>117</v>
-      </c>
       <c r="G55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D56" t="s">
+        <v>117</v>
+      </c>
+      <c r="E56" t="s">
         <v>118</v>
       </c>
-      <c r="E56" t="s">
-        <v>119</v>
-      </c>
       <c r="G56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D57" t="s">
+        <v>119</v>
+      </c>
+      <c r="E57" t="s">
         <v>120</v>
       </c>
-      <c r="E57" t="s">
-        <v>121</v>
-      </c>
       <c r="G57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D58" t="s">
+        <v>121</v>
+      </c>
+      <c r="E58" t="s">
         <v>122</v>
       </c>
-      <c r="E58" t="s">
-        <v>123</v>
-      </c>
       <c r="G58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D59" t="s">
+        <v>123</v>
+      </c>
+      <c r="E59" t="s">
         <v>124</v>
       </c>
-      <c r="E59" t="s">
-        <v>125</v>
-      </c>
       <c r="G59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D60" t="s">
+        <v>125</v>
+      </c>
+      <c r="E60" t="s">
         <v>126</v>
       </c>
-      <c r="E60" t="s">
-        <v>127</v>
-      </c>
       <c r="G60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D61" t="s">
+        <v>127</v>
+      </c>
+      <c r="E61" t="s">
         <v>128</v>
       </c>
-      <c r="E61" t="s">
-        <v>129</v>
-      </c>
       <c r="G61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
